--- a/data-raw/national_summary.xlsx
+++ b/data-raw/national_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Robinson/Afenet-projects/afenet-uganda/malariaRA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC67000D-D5F2-EA4A-9F17-6F83D0A0C86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C829819-2D99-7743-8F0C-D7695BD11D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
   </bookViews>
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -474,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -482,7 +482,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/national_summary.xlsx
+++ b/data-raw/national_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Robinson/Afenet-projects/afenet-uganda/malariaRA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C829819-2D99-7743-8F0C-D7695BD11D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5136D34B-2F8A-DF41-A08B-D8FCB368B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13980" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13880" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>9-7m</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>5. ADVOCACY, SOCIAL MOBILIZATION &amp; COMMUNICATION</t>
+  </si>
+  <si>
+    <t>12-10m</t>
   </si>
 </sst>
 </file>
@@ -416,80 +419,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BDAACD-478D-784A-9407-44AC4BB3E96E}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>94</v>
       </c>
+      <c r="C4" s="1">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
         <v>79</v>
       </c>
     </row>
